--- a/docs/StructureDefinition-underwater-communication-system.xlsx
+++ b/docs/StructureDefinition-underwater-communication-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-underwater-communication-system.xlsx
+++ b/docs/StructureDefinition-underwater-communication-system.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -352,7 +352,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -481,7 +481,7 @@
     <t>Device.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DeviceDefinition)
+    <t xml:space="preserve">Reference(DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -736,7 +736,7 @@
     <t>The availability status reason of the device.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/device-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Device.distinctIdentifier</t>
@@ -1444,7 +1444,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -1466,7 +1466,7 @@
     <t>Device.owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1504,7 +1504,7 @@
     <t>Device.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1566,7 +1566,7 @@
     <t>Device.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1912,7 +1912,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.05078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="26.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4384,7 +4384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>211</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>279</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>328</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>387</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>396</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>405</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>422</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>431</v>
       </c>
@@ -16296,12 +16296,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM130">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-underwater-communication-system.xlsx
+++ b/docs/StructureDefinition-underwater-communication-system.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-underwater-communication-system.xlsx
+++ b/docs/StructureDefinition-underwater-communication-system.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-underwater-communication-system.xlsx
+++ b/docs/StructureDefinition-underwater-communication-system.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-underwater-communication-system.xlsx
+++ b/docs/StructureDefinition-underwater-communication-system.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-underwater-communication-system.xlsx
+++ b/docs/StructureDefinition-underwater-communication-system.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-underwater-communication-system.xlsx
+++ b/docs/StructureDefinition-underwater-communication-system.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
